--- a/Project-2/Dependecy-stats (version 2).xlsb.xlsx
+++ b/Project-2/Dependecy-stats (version 2).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cop5615\Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C975D25-FCD8-499F-8052-41E79266CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E416C37-655B-46A6-A392-02EA61CFE275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>FullNetwork</t>
   </si>
@@ -44,10 +43,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3210,16 +3217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3246,16 +3253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3546,19 +3553,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3571,8 +3579,20 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -3582,8 +3602,11 @@
       <c r="C2">
         <v>24.6784</v>
       </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -3593,8 +3616,11 @@
       <c r="C3">
         <v>26.111999999999998</v>
       </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>150</v>
       </c>
@@ -3604,8 +3630,11 @@
       <c r="C4">
         <v>51.916800000000002</v>
       </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
@@ -3615,8 +3644,11 @@
       <c r="C5">
         <v>45.772799999999997</v>
       </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>250</v>
       </c>
@@ -3626,8 +3658,11 @@
       <c r="C6">
         <v>39.833599999999997</v>
       </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>300</v>
       </c>
@@ -3637,8 +3672,11 @@
       <c r="C7">
         <v>33.075200000000002</v>
       </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>350</v>
       </c>
@@ -3648,8 +3686,11 @@
       <c r="C8">
         <v>41.779200000000003</v>
       </c>
+      <c r="G8">
+        <v>350</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>400</v>
       </c>
@@ -3659,8 +3700,11 @@
       <c r="C9">
         <v>59.596800000000002</v>
       </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>450</v>
       </c>
@@ -3670,8 +3714,11 @@
       <c r="C10">
         <v>43.52</v>
       </c>
+      <c r="G10">
+        <v>450</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>500</v>
       </c>
@@ -3680,6 +3727,129 @@
       </c>
       <c r="C11">
         <v>46.489600000000003</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>850</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>950</v>
+      </c>
+      <c r="G20">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2000</v>
+      </c>
+      <c r="G24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3000</v>
+      </c>
+      <c r="G25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4000</v>
+      </c>
+      <c r="G26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5000</v>
+      </c>
+      <c r="G27">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
